--- a/Practice/Files/BooksByDate.xlsx
+++ b/Practice/Files/BooksByDate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <x:si>
     <x:t>Чит. билет</x:t>
   </x:si>
@@ -31,13 +31,16 @@
     <x:t>Автор</x:t>
   </x:si>
   <x:si>
+    <x:t>ФИО библиотекаря</x:t>
+  </x:si>
+  <x:si>
     <x:t>Выдано до</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>Порошенко Петр Алексеевич</x:t>
+    <x:t>Галушко Петр Алексеевич</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
@@ -49,7 +52,7 @@
     <x:t>Новый автор</x:t>
   </x:si>
   <x:si>
-    <x:t>Зеленский Владимир Александрович</x:t>
+    <x:t>Суворов Николай Михайлович</x:t>
   </x:si>
   <x:si>
     <x:t>09.05.2019</x:t>
@@ -477,12 +480,12 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="11.300625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="27.810625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="24.950625" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="11.090625" style="1" customWidth="1"/>
     <x:col min="4" max="4" width="16.250625" style="1" customWidth="1"/>
     <x:col min="5" max="5" width="13.280625" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="35.140625" style="1" customWidth="1"/>
-    <x:col min="7" max="7" width="11.390625" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="29.150625" style="1" customWidth="1"/>
+    <x:col min="7" max="7" width="11.850625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
@@ -504,98 +507,100 @@
       <x:c r="F1" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="2" t="s"/>
+      <x:c r="G1" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E2" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F2" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G2" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D3" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E3" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F3" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G3" s="3" t="s">
         <x:v>13</x:v>
-      </x:c>
-      <x:c r="D3" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E3" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F3" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G3" s="3" t="s">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F4" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G4" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
